--- a/data/stall_canteen_campus.xlsx
+++ b/data/stall_canteen_campus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HW\Desktop\cuhksz\eie3280\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\EIE3280\canteen_eva\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C896D5-A990-4EA0-8874-829268CAF821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6502566B-F69B-414D-861E-9CC5B4C5D3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3218" yWindow="3427" windowWidth="13702" windowHeight="5798" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,17 +560,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -592,7 +592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -603,7 +603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -614,7 +614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -647,7 +647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -669,7 +669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -702,7 +702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -746,7 +746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -757,7 +757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -779,7 +779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -790,7 +790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -801,7 +801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -812,7 +812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -823,7 +823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -845,7 +845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -856,7 +856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -867,7 +867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -878,7 +878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -889,7 +889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -900,7 +900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -911,7 +911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -922,7 +922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -933,7 +933,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -944,7 +944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -955,7 +955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -966,7 +966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -988,7 +988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -999,7 +999,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
